--- a/函數R.xlsx
+++ b/函數R.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t xml:space="preserve">function name </t>
   </si>
@@ -408,6 +408,28 @@
   </si>
   <si>
     <t>5.1.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map_lgl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Returns a list the same length as .x.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> returns a logical vector</t>
+  </si>
+  <si>
+    <t>which()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.8.3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -747,10 +769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1181,6 +1203,30 @@
         <v>105</v>
       </c>
     </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>110</v>
+      </c>
+      <c r="B45" t="s">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
